--- a/server/data/excelFiles/fleet.xlsx
+++ b/server/data/excelFiles/fleet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe Marques\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988C26AB-A564-47FC-8123-A987B2366DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AAD2A6-96E8-47ED-AD6C-B6E8EE177E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33345" yWindow="1395" windowWidth="23010" windowHeight="12360" xr2:uid="{DFE3ACB7-5E79-4A63-8D51-2F4047D1FD3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DFE3ACB7-5E79-4A63-8D51-2F4047D1FD3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3856" uniqueCount="760">
   <si>
     <t>Nome Base</t>
   </si>
@@ -2307,6 +2307,15 @@
   </si>
   <si>
     <t>SPT 111</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>Inativo</t>
+  </si>
+  <si>
+    <t>Ativo</t>
   </si>
 </sst>
 </file>
@@ -2348,7 +2357,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2362,9 +2375,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AA14D6A-5DF6-4745-8410-459D0430C892}" name="Tabela1" displayName="Tabela1" ref="A1:I552" totalsRowShown="0">
-  <autoFilter ref="A1:I552" xr:uid="{1AA14D6A-5DF6-4745-8410-459D0430C892}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AA14D6A-5DF6-4745-8410-459D0430C892}" name="Tabela1" displayName="Tabela1" ref="A1:J552" totalsRowShown="0">
+  <autoFilter ref="A1:J552" xr:uid="{1AA14D6A-5DF6-4745-8410-459D0430C892}"/>
+  <tableColumns count="10">
     <tableColumn id="2" xr3:uid="{7E2FB11B-67FD-45A8-A8B7-4B8222A97167}" name="Nome Base"/>
     <tableColumn id="5" xr3:uid="{5B37E8ED-B93E-4F8E-B486-07FB248C26C4}" name="Placa"/>
     <tableColumn id="11" xr3:uid="{70F8993F-BB1E-49AB-947F-1D6CC4CC1138}" name="Tipo de Veiculo"/>
@@ -2374,6 +2387,7 @@
     <tableColumn id="18" xr3:uid="{4E1E2BE0-7F84-4479-8C42-4845C31CB3C3}" name="Renavam"/>
     <tableColumn id="20" xr3:uid="{F650CEB8-4365-40FD-88B5-96B5AED641DE}" name="Capacidade dos Tanques"/>
     <tableColumn id="25" xr3:uid="{3AA260DD-F617-4229-A06A-6647AD2A0ABB}" name="Ano"/>
+    <tableColumn id="1" xr3:uid="{7435E91A-8CDA-4AB5-87A2-B6AB99087BFB}" name="IsActive" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2676,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829DCE65-09DC-41F2-978F-88AB66B01FD6}">
-  <dimension ref="A1:I552"/>
+  <dimension ref="A1:J552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A539" workbookViewId="0">
-      <selection activeCell="C555" sqref="C555"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2693,7 +2707,7 @@
     <col min="8" max="8" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2721,8 +2735,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>736</v>
       </c>
@@ -2750,8 +2767,11 @@
       <c r="I2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>736</v>
       </c>
@@ -2779,8 +2799,11 @@
       <c r="I3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>736</v>
       </c>
@@ -2808,8 +2831,11 @@
       <c r="I4">
         <v>2017</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>736</v>
       </c>
@@ -2837,8 +2863,11 @@
       <c r="I5">
         <v>1974</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>736</v>
       </c>
@@ -2866,8 +2895,11 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>736</v>
       </c>
@@ -2895,8 +2927,11 @@
       <c r="I7">
         <v>2002</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>736</v>
       </c>
@@ -2924,8 +2959,11 @@
       <c r="I8">
         <v>2017</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>736</v>
       </c>
@@ -2953,8 +2991,11 @@
       <c r="I9">
         <v>2017</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>736</v>
       </c>
@@ -2982,8 +3023,11 @@
       <c r="I10">
         <v>2017</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>736</v>
       </c>
@@ -3011,8 +3055,11 @@
       <c r="I11">
         <v>2015</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>736</v>
       </c>
@@ -3037,8 +3084,11 @@
       <c r="I12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>736</v>
       </c>
@@ -3063,8 +3113,11 @@
       <c r="I13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>736</v>
       </c>
@@ -3089,8 +3142,11 @@
       <c r="I14">
         <v>2021</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>737</v>
       </c>
@@ -3115,8 +3171,11 @@
       <c r="I15">
         <v>2011</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>737</v>
       </c>
@@ -3141,8 +3200,11 @@
       <c r="I16">
         <v>2011</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>737</v>
       </c>
@@ -3167,8 +3229,11 @@
       <c r="I17">
         <v>2011</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>737</v>
       </c>
@@ -3193,8 +3258,11 @@
       <c r="I18">
         <v>2011</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>737</v>
       </c>
@@ -3219,8 +3287,11 @@
       <c r="I19">
         <v>2022</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>737</v>
       </c>
@@ -3245,8 +3316,11 @@
       <c r="I20">
         <v>2011</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>737</v>
       </c>
@@ -3271,8 +3345,11 @@
       <c r="I21">
         <v>1997</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>737</v>
       </c>
@@ -3297,8 +3374,11 @@
       <c r="I22">
         <v>1996</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>737</v>
       </c>
@@ -3323,8 +3403,11 @@
       <c r="I23">
         <v>1994</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>737</v>
       </c>
@@ -3352,8 +3435,11 @@
       <c r="I24">
         <v>2007</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>737</v>
       </c>
@@ -3378,8 +3464,11 @@
       <c r="I25">
         <v>1993</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>737</v>
       </c>
@@ -3404,8 +3493,11 @@
       <c r="I26">
         <v>2009</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>737</v>
       </c>
@@ -3430,8 +3522,11 @@
       <c r="I27">
         <v>2009</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>737</v>
       </c>
@@ -3456,8 +3551,11 @@
       <c r="I28">
         <v>2008</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>737</v>
       </c>
@@ -3482,8 +3580,11 @@
       <c r="I29">
         <v>2008</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>737</v>
       </c>
@@ -3508,8 +3609,11 @@
       <c r="I30">
         <v>2008</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>737</v>
       </c>
@@ -3537,8 +3641,11 @@
       <c r="I31">
         <v>2009</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>737</v>
       </c>
@@ -3563,8 +3670,11 @@
       <c r="I32">
         <v>2009</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>737</v>
       </c>
@@ -3589,8 +3699,11 @@
       <c r="I33">
         <v>1996</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>737</v>
       </c>
@@ -3615,8 +3728,11 @@
       <c r="I34">
         <v>2011</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>737</v>
       </c>
@@ -3641,8 +3757,11 @@
       <c r="I35">
         <v>2011</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>737</v>
       </c>
@@ -3667,8 +3786,11 @@
       <c r="I36">
         <v>2000</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>737</v>
       </c>
@@ -3693,8 +3815,11 @@
       <c r="I37">
         <v>1998</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>737</v>
       </c>
@@ -3722,8 +3847,11 @@
       <c r="I38">
         <v>2011</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>737</v>
       </c>
@@ -3748,8 +3876,11 @@
       <c r="I39">
         <v>2012</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>737</v>
       </c>
@@ -3774,8 +3905,11 @@
       <c r="I40">
         <v>2012</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>737</v>
       </c>
@@ -3800,8 +3934,11 @@
       <c r="I41">
         <v>2011</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>737</v>
       </c>
@@ -3826,8 +3963,11 @@
       <c r="I42">
         <v>2015</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>737</v>
       </c>
@@ -3852,8 +3992,11 @@
       <c r="I43">
         <v>2014</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>737</v>
       </c>
@@ -3878,8 +4021,11 @@
       <c r="I44">
         <v>2014</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>737</v>
       </c>
@@ -3904,8 +4050,11 @@
       <c r="I45">
         <v>2017</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>737</v>
       </c>
@@ -3930,8 +4079,11 @@
       <c r="I46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>737</v>
       </c>
@@ -3956,8 +4108,11 @@
       <c r="I47">
         <v>2018</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>737</v>
       </c>
@@ -3982,8 +4137,11 @@
       <c r="I48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>737</v>
       </c>
@@ -4008,8 +4166,11 @@
       <c r="I49">
         <v>2018</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>737</v>
       </c>
@@ -4034,8 +4195,11 @@
       <c r="I50">
         <v>2018</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>737</v>
       </c>
@@ -4060,8 +4224,11 @@
       <c r="I51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>737</v>
       </c>
@@ -4086,8 +4253,11 @@
       <c r="I52">
         <v>2018</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>737</v>
       </c>
@@ -4112,8 +4282,11 @@
       <c r="I53">
         <v>2018</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>737</v>
       </c>
@@ -4138,8 +4311,11 @@
       <c r="I54">
         <v>2018</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>737</v>
       </c>
@@ -4164,8 +4340,11 @@
       <c r="I55">
         <v>2018</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>737</v>
       </c>
@@ -4190,8 +4369,11 @@
       <c r="I56">
         <v>2018</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>737</v>
       </c>
@@ -4216,8 +4398,11 @@
       <c r="I57">
         <v>2018</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>737</v>
       </c>
@@ -4242,8 +4427,11 @@
       <c r="I58">
         <v>1995</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>737</v>
       </c>
@@ -4268,8 +4456,11 @@
       <c r="I59">
         <v>2012</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>737</v>
       </c>
@@ -4294,8 +4485,11 @@
       <c r="I60">
         <v>1995</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>737</v>
       </c>
@@ -4320,8 +4514,11 @@
       <c r="I61">
         <v>1996</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>737</v>
       </c>
@@ -4346,8 +4543,11 @@
       <c r="I62">
         <v>2018</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>737</v>
       </c>
@@ -4372,8 +4572,11 @@
       <c r="I63">
         <v>1994</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>737</v>
       </c>
@@ -4401,8 +4604,11 @@
       <c r="I64">
         <v>2019</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>737</v>
       </c>
@@ -4430,8 +4636,11 @@
       <c r="I65">
         <v>2019</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>737</v>
       </c>
@@ -4456,8 +4665,11 @@
       <c r="I66">
         <v>2020</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>737</v>
       </c>
@@ -4482,8 +4694,11 @@
       <c r="I67">
         <v>2018</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>737</v>
       </c>
@@ -4508,8 +4723,11 @@
       <c r="I68">
         <v>2019</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>737</v>
       </c>
@@ -4534,8 +4752,11 @@
       <c r="I69">
         <v>2019</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>737</v>
       </c>
@@ -4560,8 +4781,11 @@
       <c r="I70">
         <v>2019</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>737</v>
       </c>
@@ -4589,8 +4813,11 @@
       <c r="I71">
         <v>2019</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>737</v>
       </c>
@@ -4615,8 +4842,11 @@
       <c r="I72">
         <v>2019</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>737</v>
       </c>
@@ -4641,8 +4871,11 @@
       <c r="I73">
         <v>2019</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>737</v>
       </c>
@@ -4667,8 +4900,11 @@
       <c r="I74">
         <v>2019</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>737</v>
       </c>
@@ -4696,8 +4932,11 @@
       <c r="I75">
         <v>2013</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>737</v>
       </c>
@@ -4725,8 +4964,11 @@
       <c r="I76">
         <v>2020</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>737</v>
       </c>
@@ -4751,8 +4993,11 @@
       <c r="I77">
         <v>2019</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>737</v>
       </c>
@@ -4777,8 +5022,11 @@
       <c r="I78">
         <v>2019</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>737</v>
       </c>
@@ -4803,8 +5051,11 @@
       <c r="I79">
         <v>2020</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>737</v>
       </c>
@@ -4829,8 +5080,11 @@
       <c r="I80">
         <v>2021</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>737</v>
       </c>
@@ -4858,8 +5112,11 @@
       <c r="I81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>737</v>
       </c>
@@ -4884,8 +5141,11 @@
       <c r="I82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>737</v>
       </c>
@@ -4910,8 +5170,11 @@
       <c r="I83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>737</v>
       </c>
@@ -4936,8 +5199,11 @@
       <c r="I84">
         <v>2019</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>737</v>
       </c>
@@ -4962,8 +5228,11 @@
       <c r="I85">
         <v>2019</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>737</v>
       </c>
@@ -4991,8 +5260,11 @@
       <c r="I86">
         <v>2020</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>737</v>
       </c>
@@ -5017,8 +5289,11 @@
       <c r="I87">
         <v>2020</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>737</v>
       </c>
@@ -5043,8 +5318,11 @@
       <c r="I88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>737</v>
       </c>
@@ -5072,8 +5350,11 @@
       <c r="I89">
         <v>2020</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>737</v>
       </c>
@@ -5101,8 +5382,11 @@
       <c r="I90">
         <v>2020</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>737</v>
       </c>
@@ -5130,8 +5414,11 @@
       <c r="I91">
         <v>2020</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>737</v>
       </c>
@@ -5159,8 +5446,11 @@
       <c r="I92">
         <v>2020</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>737</v>
       </c>
@@ -5185,8 +5475,11 @@
       <c r="I93">
         <v>2020</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>737</v>
       </c>
@@ -5214,8 +5507,11 @@
       <c r="I94">
         <v>2020</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>737</v>
       </c>
@@ -5243,8 +5539,11 @@
       <c r="I95">
         <v>2020</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>737</v>
       </c>
@@ -5269,8 +5568,11 @@
       <c r="I96">
         <v>2020</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>737</v>
       </c>
@@ -5295,8 +5597,11 @@
       <c r="I97">
         <v>2020</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>737</v>
       </c>
@@ -5324,8 +5629,11 @@
       <c r="I98">
         <v>2020</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>737</v>
       </c>
@@ -5353,8 +5661,11 @@
       <c r="I99">
         <v>2020</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>737</v>
       </c>
@@ -5382,8 +5693,11 @@
       <c r="I100">
         <v>2020</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>737</v>
       </c>
@@ -5411,8 +5725,11 @@
       <c r="I101">
         <v>2020</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>737</v>
       </c>
@@ -5440,8 +5757,11 @@
       <c r="I102">
         <v>2020</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>737</v>
       </c>
@@ -5466,8 +5786,11 @@
       <c r="I103">
         <v>2020</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>737</v>
       </c>
@@ -5495,8 +5818,11 @@
       <c r="I104">
         <v>2020</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>737</v>
       </c>
@@ -5524,8 +5850,11 @@
       <c r="I105">
         <v>2021</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>737</v>
       </c>
@@ -5550,8 +5879,11 @@
       <c r="I106">
         <v>2021</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>737</v>
       </c>
@@ -5579,8 +5911,11 @@
       <c r="I107">
         <v>2021</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>737</v>
       </c>
@@ -5605,8 +5940,11 @@
       <c r="I108">
         <v>2021</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>737</v>
       </c>
@@ -5634,8 +5972,11 @@
       <c r="I109">
         <v>2021</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>737</v>
       </c>
@@ -5663,8 +6004,11 @@
       <c r="I110">
         <v>2021</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>737</v>
       </c>
@@ -5689,8 +6033,11 @@
       <c r="I111">
         <v>2021</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>737</v>
       </c>
@@ -5718,8 +6065,11 @@
       <c r="I112">
         <v>2021</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>737</v>
       </c>
@@ -5744,8 +6094,11 @@
       <c r="I113">
         <v>2021</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>737</v>
       </c>
@@ -5770,8 +6123,11 @@
       <c r="I114">
         <v>2021</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>737</v>
       </c>
@@ -5796,8 +6152,11 @@
       <c r="I115">
         <v>2021</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>737</v>
       </c>
@@ -5822,8 +6181,11 @@
       <c r="I116">
         <v>2021</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>737</v>
       </c>
@@ -5848,8 +6210,11 @@
       <c r="I117">
         <v>2021</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>737</v>
       </c>
@@ -5874,8 +6239,11 @@
       <c r="I118">
         <v>2022</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>737</v>
       </c>
@@ -5900,8 +6268,11 @@
       <c r="I119">
         <v>2022</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>737</v>
       </c>
@@ -5926,8 +6297,11 @@
       <c r="I120">
         <v>2022</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>737</v>
       </c>
@@ -5952,8 +6326,11 @@
       <c r="I121">
         <v>2022</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>737</v>
       </c>
@@ -5978,8 +6355,11 @@
       <c r="I122">
         <v>2012</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>737</v>
       </c>
@@ -6004,8 +6384,11 @@
       <c r="I123">
         <v>2013</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>737</v>
       </c>
@@ -6030,8 +6413,11 @@
       <c r="I124">
         <v>2010</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>737</v>
       </c>
@@ -6056,8 +6442,11 @@
       <c r="I125">
         <v>2013</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>737</v>
       </c>
@@ -6082,8 +6471,11 @@
       <c r="I126">
         <v>2013</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>737</v>
       </c>
@@ -6108,8 +6500,11 @@
       <c r="I127">
         <v>2013</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>737</v>
       </c>
@@ -6134,8 +6529,11 @@
       <c r="I128">
         <v>2013</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>737</v>
       </c>
@@ -6160,8 +6558,11 @@
       <c r="I129">
         <v>2011</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>737</v>
       </c>
@@ -6186,8 +6587,11 @@
       <c r="I130">
         <v>2011</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>737</v>
       </c>
@@ -6212,8 +6616,11 @@
       <c r="I131">
         <v>2019</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>737</v>
       </c>
@@ -6238,8 +6645,11 @@
       <c r="I132">
         <v>2013</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>738</v>
       </c>
@@ -6264,8 +6674,11 @@
       <c r="I133">
         <v>2012</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>739</v>
       </c>
@@ -6290,8 +6703,11 @@
       <c r="I134">
         <v>2020</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>739</v>
       </c>
@@ -6316,8 +6732,11 @@
       <c r="I135">
         <v>2020</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>739</v>
       </c>
@@ -6342,8 +6761,11 @@
       <c r="I136">
         <v>2021</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>740</v>
       </c>
@@ -6368,8 +6790,11 @@
       <c r="I137">
         <v>2010</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>246</v>
       </c>
@@ -6394,8 +6819,11 @@
       <c r="I138">
         <v>2013</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>246</v>
       </c>
@@ -6420,8 +6848,11 @@
       <c r="I139">
         <v>2013</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>246</v>
       </c>
@@ -6446,8 +6877,11 @@
       <c r="I140">
         <v>2013</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>752</v>
       </c>
@@ -6472,8 +6906,11 @@
       <c r="I141">
         <v>2020</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>752</v>
       </c>
@@ -6498,8 +6935,11 @@
       <c r="I142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>752</v>
       </c>
@@ -6524,8 +6964,11 @@
       <c r="I143">
         <v>2014</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>752</v>
       </c>
@@ -6550,8 +6993,11 @@
       <c r="I144">
         <v>2019</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>752</v>
       </c>
@@ -6576,8 +7022,11 @@
       <c r="I145">
         <v>2019</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>752</v>
       </c>
@@ -6602,8 +7051,11 @@
       <c r="I146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>752</v>
       </c>
@@ -6628,8 +7080,11 @@
       <c r="I147">
         <v>2019</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>752</v>
       </c>
@@ -6654,8 +7109,11 @@
       <c r="I148">
         <v>1994</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>752</v>
       </c>
@@ -6680,8 +7138,11 @@
       <c r="I149">
         <v>2020</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>752</v>
       </c>
@@ -6706,8 +7167,11 @@
       <c r="I150">
         <v>2020</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>752</v>
       </c>
@@ -6732,8 +7196,11 @@
       <c r="I151">
         <v>2020</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>752</v>
       </c>
@@ -6758,8 +7225,11 @@
       <c r="I152">
         <v>2021</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>752</v>
       </c>
@@ -6784,8 +7254,11 @@
       <c r="I153">
         <v>2020</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J153" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>752</v>
       </c>
@@ -6810,8 +7283,11 @@
       <c r="I154">
         <v>2020</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>752</v>
       </c>
@@ -6836,8 +7312,11 @@
       <c r="I155">
         <v>2021</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>752</v>
       </c>
@@ -6862,8 +7341,11 @@
       <c r="I156">
         <v>2021</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>753</v>
       </c>
@@ -6891,8 +7373,11 @@
       <c r="I157">
         <v>2022</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>753</v>
       </c>
@@ -6917,8 +7402,11 @@
       <c r="I158">
         <v>2008</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>753</v>
       </c>
@@ -6943,8 +7431,11 @@
       <c r="I159">
         <v>2019</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>753</v>
       </c>
@@ -6969,8 +7460,11 @@
       <c r="I160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>753</v>
       </c>
@@ -6998,8 +7492,11 @@
       <c r="I161">
         <v>2019</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J161" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>753</v>
       </c>
@@ -7024,8 +7521,11 @@
       <c r="I162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>753</v>
       </c>
@@ -7050,8 +7550,11 @@
       <c r="I163">
         <v>2019</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>753</v>
       </c>
@@ -7076,8 +7579,11 @@
       <c r="I164">
         <v>2019</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J164" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>753</v>
       </c>
@@ -7102,8 +7608,11 @@
       <c r="I165">
         <v>2020</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>753</v>
       </c>
@@ -7128,8 +7637,11 @@
       <c r="I166">
         <v>2020</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>753</v>
       </c>
@@ -7154,8 +7666,11 @@
       <c r="I167">
         <v>2020</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>753</v>
       </c>
@@ -7180,8 +7695,11 @@
       <c r="I168">
         <v>2020</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>753</v>
       </c>
@@ -7209,8 +7727,11 @@
       <c r="I169">
         <v>2020</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>753</v>
       </c>
@@ -7235,8 +7756,11 @@
       <c r="I170">
         <v>2020</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J170" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>753</v>
       </c>
@@ -7261,8 +7785,11 @@
       <c r="I171">
         <v>2020</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J171" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>753</v>
       </c>
@@ -7287,8 +7814,11 @@
       <c r="I172">
         <v>2021</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J172" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>753</v>
       </c>
@@ -7313,8 +7843,11 @@
       <c r="I173">
         <v>2021</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J173" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>753</v>
       </c>
@@ -7339,8 +7872,11 @@
       <c r="I174">
         <v>2021</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J174" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>753</v>
       </c>
@@ -7365,8 +7901,11 @@
       <c r="I175">
         <v>2021</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J175" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>753</v>
       </c>
@@ -7394,8 +7933,11 @@
       <c r="I176">
         <v>2021</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J176" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>741</v>
       </c>
@@ -7420,8 +7962,11 @@
       <c r="I177">
         <v>2019</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J177" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>741</v>
       </c>
@@ -7446,8 +7991,11 @@
       <c r="I178">
         <v>2020</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>741</v>
       </c>
@@ -7472,8 +8020,11 @@
       <c r="I179">
         <v>2021</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J179" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>742</v>
       </c>
@@ -7501,8 +8052,11 @@
       <c r="I180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J180" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>742</v>
       </c>
@@ -7527,8 +8081,11 @@
       <c r="I181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J181" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>742</v>
       </c>
@@ -7553,8 +8110,11 @@
       <c r="I182">
         <v>2019</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J182" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>742</v>
       </c>
@@ -7579,8 +8139,11 @@
       <c r="I183">
         <v>2019</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J183" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>742</v>
       </c>
@@ -7608,8 +8171,11 @@
       <c r="I184">
         <v>2019</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J184" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>742</v>
       </c>
@@ -7634,8 +8200,11 @@
       <c r="I185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J185" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>742</v>
       </c>
@@ -7663,8 +8232,11 @@
       <c r="I186">
         <v>2021</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J186" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>742</v>
       </c>
@@ -7689,8 +8261,11 @@
       <c r="I187">
         <v>2021</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J187" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>743</v>
       </c>
@@ -7715,8 +8290,11 @@
       <c r="I188">
         <v>2022</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J188" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>743</v>
       </c>
@@ -7741,8 +8319,11 @@
       <c r="I189">
         <v>2015</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J189" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>743</v>
       </c>
@@ -7767,8 +8348,11 @@
       <c r="I190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J190" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>743</v>
       </c>
@@ -7793,8 +8377,11 @@
       <c r="I191">
         <v>2016</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J191" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>743</v>
       </c>
@@ -7819,8 +8406,11 @@
       <c r="I192">
         <v>2017</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J192" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>743</v>
       </c>
@@ -7845,8 +8435,11 @@
       <c r="I193">
         <v>2018</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J193" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>743</v>
       </c>
@@ -7871,8 +8464,11 @@
       <c r="I194">
         <v>2018</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J194" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>743</v>
       </c>
@@ -7897,8 +8493,11 @@
       <c r="I195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J195" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>743</v>
       </c>
@@ -7923,8 +8522,11 @@
       <c r="I196">
         <v>2019</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J196" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>743</v>
       </c>
@@ -7949,8 +8551,11 @@
       <c r="I197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J197" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>743</v>
       </c>
@@ -7975,8 +8580,11 @@
       <c r="I198">
         <v>2017</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J198" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>743</v>
       </c>
@@ -8001,8 +8609,11 @@
       <c r="I199">
         <v>2017</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J199" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>743</v>
       </c>
@@ -8027,8 +8638,11 @@
       <c r="I200">
         <v>2017</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J200" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>743</v>
       </c>
@@ -8053,8 +8667,11 @@
       <c r="I201">
         <v>1994</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J201" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>743</v>
       </c>
@@ -8079,8 +8696,11 @@
       <c r="I202">
         <v>2018</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J202" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>743</v>
       </c>
@@ -8105,8 +8725,11 @@
       <c r="I203">
         <v>2019</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J203" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>743</v>
       </c>
@@ -8131,8 +8754,11 @@
       <c r="I204">
         <v>2018</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J204" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>743</v>
       </c>
@@ -8157,8 +8783,11 @@
       <c r="I205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J205" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>743</v>
       </c>
@@ -8183,8 +8812,11 @@
       <c r="I206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J206" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>743</v>
       </c>
@@ -8209,8 +8841,11 @@
       <c r="I207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J207" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>743</v>
       </c>
@@ -8235,8 +8870,11 @@
       <c r="I208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J208" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>743</v>
       </c>
@@ -8261,8 +8899,11 @@
       <c r="I209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J209" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>743</v>
       </c>
@@ -8287,8 +8928,11 @@
       <c r="I210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J210" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>743</v>
       </c>
@@ -8313,8 +8957,11 @@
       <c r="I211">
         <v>2020</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J211" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>743</v>
       </c>
@@ -8339,8 +8986,11 @@
       <c r="I212">
         <v>2018</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J212" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>743</v>
       </c>
@@ -8365,8 +9015,11 @@
       <c r="I213">
         <v>2019</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J213" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>743</v>
       </c>
@@ -8391,8 +9044,11 @@
       <c r="I214">
         <v>2020</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J214" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>743</v>
       </c>
@@ -8417,8 +9073,11 @@
       <c r="I215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>743</v>
       </c>
@@ -8443,8 +9102,11 @@
       <c r="I216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>743</v>
       </c>
@@ -8469,8 +9131,11 @@
       <c r="I217">
         <v>2019</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>743</v>
       </c>
@@ -8495,8 +9160,11 @@
       <c r="I218">
         <v>2019</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J218" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>743</v>
       </c>
@@ -8521,8 +9189,11 @@
       <c r="I219">
         <v>2019</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J219" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>743</v>
       </c>
@@ -8547,8 +9218,11 @@
       <c r="I220">
         <v>2018</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J220" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>743</v>
       </c>
@@ -8573,8 +9247,11 @@
       <c r="I221">
         <v>2018</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J221" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>743</v>
       </c>
@@ -8599,8 +9276,11 @@
       <c r="I222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J222" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>743</v>
       </c>
@@ -8625,8 +9305,11 @@
       <c r="I223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J223" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>743</v>
       </c>
@@ -8651,8 +9334,11 @@
       <c r="I224">
         <v>2019</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J224" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>743</v>
       </c>
@@ -8677,8 +9363,11 @@
       <c r="I225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J225" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>743</v>
       </c>
@@ -8703,8 +9392,11 @@
       <c r="I226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J226" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>743</v>
       </c>
@@ -8729,8 +9421,11 @@
       <c r="I227">
         <v>2019</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J227" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>743</v>
       </c>
@@ -8755,8 +9450,11 @@
       <c r="I228">
         <v>2019</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J228" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>743</v>
       </c>
@@ -8781,8 +9479,11 @@
       <c r="I229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J229" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>743</v>
       </c>
@@ -8807,8 +9508,11 @@
       <c r="I230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J230" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>743</v>
       </c>
@@ -8833,8 +9537,11 @@
       <c r="I231">
         <v>2019</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J231" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>743</v>
       </c>
@@ -8859,8 +9566,11 @@
       <c r="I232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J232" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>743</v>
       </c>
@@ -8885,8 +9595,11 @@
       <c r="I233">
         <v>2018</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J233" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>743</v>
       </c>
@@ -8911,8 +9624,11 @@
       <c r="I234">
         <v>2018</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>743</v>
       </c>
@@ -8937,8 +9653,11 @@
       <c r="I235">
         <v>2019</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J235" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>743</v>
       </c>
@@ -8963,8 +9682,11 @@
       <c r="I236">
         <v>2018</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>743</v>
       </c>
@@ -8989,8 +9711,11 @@
       <c r="I237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>743</v>
       </c>
@@ -9015,8 +9740,11 @@
       <c r="I238">
         <v>2019</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J238" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>743</v>
       </c>
@@ -9041,8 +9769,11 @@
       <c r="I239">
         <v>2019</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J239" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>743</v>
       </c>
@@ -9067,8 +9798,11 @@
       <c r="I240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J240" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>743</v>
       </c>
@@ -9093,8 +9827,11 @@
       <c r="I241">
         <v>2019</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J241" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>743</v>
       </c>
@@ -9119,8 +9856,11 @@
       <c r="I242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J242" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>743</v>
       </c>
@@ -9145,8 +9885,11 @@
       <c r="I243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J243" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>743</v>
       </c>
@@ -9171,8 +9914,11 @@
       <c r="I244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J244" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>743</v>
       </c>
@@ -9197,8 +9943,11 @@
       <c r="I245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J245" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>743</v>
       </c>
@@ -9223,8 +9972,11 @@
       <c r="I246">
         <v>2019</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J246" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>743</v>
       </c>
@@ -9249,8 +10001,11 @@
       <c r="I247">
         <v>2019</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J247" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>743</v>
       </c>
@@ -9275,8 +10030,11 @@
       <c r="I248">
         <v>2019</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J248" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>743</v>
       </c>
@@ -9301,8 +10059,11 @@
       <c r="I249">
         <v>2021</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J249" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>743</v>
       </c>
@@ -9327,8 +10088,11 @@
       <c r="I250">
         <v>2016</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J250" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>743</v>
       </c>
@@ -9353,8 +10117,11 @@
       <c r="I251">
         <v>2019</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J251" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>743</v>
       </c>
@@ -9379,8 +10146,11 @@
       <c r="I252">
         <v>2019</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J252" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>743</v>
       </c>
@@ -9405,8 +10175,11 @@
       <c r="I253">
         <v>2020</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J253" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>743</v>
       </c>
@@ -9431,8 +10204,11 @@
       <c r="I254">
         <v>2019</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J254" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>743</v>
       </c>
@@ -9457,8 +10233,11 @@
       <c r="I255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J255" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>743</v>
       </c>
@@ -9483,8 +10262,11 @@
       <c r="I256">
         <v>2020</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J256" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>743</v>
       </c>
@@ -9509,8 +10291,11 @@
       <c r="I257">
         <v>2020</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J257" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>743</v>
       </c>
@@ -9535,8 +10320,11 @@
       <c r="I258">
         <v>2020</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J258" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>743</v>
       </c>
@@ -9561,8 +10349,11 @@
       <c r="I259">
         <v>2019</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J259" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>743</v>
       </c>
@@ -9587,8 +10378,11 @@
       <c r="I260">
         <v>2020</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J260" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>743</v>
       </c>
@@ -9613,8 +10407,11 @@
       <c r="I261">
         <v>2019</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J261" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>743</v>
       </c>
@@ -9639,8 +10436,11 @@
       <c r="I262">
         <v>2019</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J262" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>743</v>
       </c>
@@ -9665,8 +10465,11 @@
       <c r="I263">
         <v>2019</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J263" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>743</v>
       </c>
@@ -9691,8 +10494,11 @@
       <c r="I264">
         <v>2017</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J264" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>743</v>
       </c>
@@ -9717,8 +10523,11 @@
       <c r="I265">
         <v>2019</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J265" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>743</v>
       </c>
@@ -9743,8 +10552,11 @@
       <c r="I266">
         <v>2019</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J266" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>743</v>
       </c>
@@ -9769,8 +10581,11 @@
       <c r="I267">
         <v>2019</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J267" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>743</v>
       </c>
@@ -9795,8 +10610,11 @@
       <c r="I268">
         <v>2019</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J268" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>743</v>
       </c>
@@ -9821,8 +10639,11 @@
       <c r="I269">
         <v>2020</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J269" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>743</v>
       </c>
@@ -9847,8 +10668,11 @@
       <c r="I270">
         <v>2019</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J270" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>743</v>
       </c>
@@ -9873,8 +10697,11 @@
       <c r="I271">
         <v>2019</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J271" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>743</v>
       </c>
@@ -9899,8 +10726,11 @@
       <c r="I272">
         <v>2019</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J272" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>743</v>
       </c>
@@ -9925,8 +10755,11 @@
       <c r="I273">
         <v>2019</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J273" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>743</v>
       </c>
@@ -9951,8 +10784,11 @@
       <c r="I274">
         <v>2019</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J274" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>743</v>
       </c>
@@ -9977,8 +10813,11 @@
       <c r="I275">
         <v>2019</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J275" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>743</v>
       </c>
@@ -10003,8 +10842,11 @@
       <c r="I276">
         <v>2019</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J276" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>743</v>
       </c>
@@ -10029,8 +10871,11 @@
       <c r="I277">
         <v>2019</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J277" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>743</v>
       </c>
@@ -10055,8 +10900,11 @@
       <c r="I278">
         <v>2019</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J278" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>743</v>
       </c>
@@ -10081,8 +10929,11 @@
       <c r="I279">
         <v>2020</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J279" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>743</v>
       </c>
@@ -10107,8 +10958,11 @@
       <c r="I280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J280" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>743</v>
       </c>
@@ -10133,8 +10987,11 @@
       <c r="I281">
         <v>2020</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J281" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>743</v>
       </c>
@@ -10159,8 +11016,11 @@
       <c r="I282">
         <v>2020</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J282" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>743</v>
       </c>
@@ -10185,8 +11045,11 @@
       <c r="I283">
         <v>2020</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J283" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>743</v>
       </c>
@@ -10211,8 +11074,11 @@
       <c r="I284">
         <v>2020</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J284" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>743</v>
       </c>
@@ -10237,8 +11103,11 @@
       <c r="I285">
         <v>2020</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J285" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>743</v>
       </c>
@@ -10263,8 +11132,11 @@
       <c r="I286">
         <v>2013</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J286" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>743</v>
       </c>
@@ -10289,8 +11161,11 @@
       <c r="I287">
         <v>2020</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J287" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>743</v>
       </c>
@@ -10315,8 +11190,11 @@
       <c r="I288">
         <v>2020</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J288" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>743</v>
       </c>
@@ -10341,8 +11219,11 @@
       <c r="I289">
         <v>2021</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J289" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>743</v>
       </c>
@@ -10367,8 +11248,11 @@
       <c r="I290">
         <v>2020</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J290" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>743</v>
       </c>
@@ -10393,8 +11277,11 @@
       <c r="I291">
         <v>2020</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J291" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>743</v>
       </c>
@@ -10419,8 +11306,11 @@
       <c r="I292">
         <v>2020</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J292" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>743</v>
       </c>
@@ -10445,8 +11335,11 @@
       <c r="I293">
         <v>2020</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J293" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>743</v>
       </c>
@@ -10471,8 +11364,11 @@
       <c r="I294">
         <v>2020</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J294" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>743</v>
       </c>
@@ -10497,8 +11393,11 @@
       <c r="I295">
         <v>2020</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J295" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>743</v>
       </c>
@@ -10523,8 +11422,11 @@
       <c r="I296">
         <v>2020</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J296" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>743</v>
       </c>
@@ -10549,8 +11451,11 @@
       <c r="I297">
         <v>2020</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J297" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>743</v>
       </c>
@@ -10575,8 +11480,11 @@
       <c r="I298">
         <v>2020</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J298" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>743</v>
       </c>
@@ -10601,8 +11509,11 @@
       <c r="I299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J299" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>743</v>
       </c>
@@ -10627,8 +11538,11 @@
       <c r="I300">
         <v>2020</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J300" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>743</v>
       </c>
@@ -10653,8 +11567,11 @@
       <c r="I301">
         <v>2020</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J301" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>743</v>
       </c>
@@ -10679,8 +11596,11 @@
       <c r="I302">
         <v>2020</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J302" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>743</v>
       </c>
@@ -10705,8 +11625,11 @@
       <c r="I303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J303" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>743</v>
       </c>
@@ -10731,8 +11654,11 @@
       <c r="I304">
         <v>2020</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J304" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>743</v>
       </c>
@@ -10757,8 +11683,11 @@
       <c r="I305">
         <v>2021</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J305" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>743</v>
       </c>
@@ -10783,8 +11712,11 @@
       <c r="I306">
         <v>2020</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J306" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>743</v>
       </c>
@@ -10809,8 +11741,11 @@
       <c r="I307">
         <v>2018</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J307" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>743</v>
       </c>
@@ -10835,8 +11770,11 @@
       <c r="I308">
         <v>2021</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J308" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>743</v>
       </c>
@@ -10861,8 +11799,11 @@
       <c r="I309">
         <v>2020</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J309" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>743</v>
       </c>
@@ -10887,8 +11828,11 @@
       <c r="I310">
         <v>2020</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J310" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>743</v>
       </c>
@@ -10913,8 +11857,11 @@
       <c r="I311">
         <v>2020</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J311" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>743</v>
       </c>
@@ -10939,8 +11886,11 @@
       <c r="I312">
         <v>2020</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J312" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>743</v>
       </c>
@@ -10965,8 +11915,11 @@
       <c r="I313">
         <v>2020</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J313" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>743</v>
       </c>
@@ -10991,8 +11944,11 @@
       <c r="I314">
         <v>2020</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J314" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>743</v>
       </c>
@@ -11017,8 +11973,11 @@
       <c r="I315">
         <v>2020</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J315" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>743</v>
       </c>
@@ -11043,8 +12002,11 @@
       <c r="I316">
         <v>2020</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J316" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>743</v>
       </c>
@@ -11069,8 +12031,11 @@
       <c r="I317">
         <v>2020</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J317" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>743</v>
       </c>
@@ -11098,8 +12063,11 @@
       <c r="I318">
         <v>2020</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J318" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>743</v>
       </c>
@@ -11127,8 +12095,11 @@
       <c r="I319">
         <v>2020</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J319" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>743</v>
       </c>
@@ -11153,8 +12124,11 @@
       <c r="I320">
         <v>2020</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J320" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>743</v>
       </c>
@@ -11179,8 +12153,11 @@
       <c r="I321">
         <v>2020</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J321" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>743</v>
       </c>
@@ -11205,8 +12182,11 @@
       <c r="I322">
         <v>2020</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J322" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>743</v>
       </c>
@@ -11234,8 +12214,11 @@
       <c r="I323">
         <v>2020</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J323" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>743</v>
       </c>
@@ -11260,8 +12243,11 @@
       <c r="I324">
         <v>2020</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J324" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>743</v>
       </c>
@@ -11289,8 +12275,11 @@
       <c r="I325">
         <v>2020</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J325" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>743</v>
       </c>
@@ -11315,8 +12304,11 @@
       <c r="I326">
         <v>2020</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J326" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>743</v>
       </c>
@@ -11341,8 +12333,11 @@
       <c r="I327">
         <v>2020</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J327" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>743</v>
       </c>
@@ -11367,8 +12362,11 @@
       <c r="I328">
         <v>2020</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J328" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>743</v>
       </c>
@@ -11396,8 +12394,11 @@
       <c r="I329">
         <v>2020</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J329" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>743</v>
       </c>
@@ -11425,8 +12426,11 @@
       <c r="I330">
         <v>2020</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J330" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>743</v>
       </c>
@@ -11451,8 +12455,11 @@
       <c r="I331">
         <v>2020</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J331" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>743</v>
       </c>
@@ -11477,8 +12484,11 @@
       <c r="I332">
         <v>2020</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J332" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>743</v>
       </c>
@@ -11503,8 +12513,11 @@
       <c r="I333">
         <v>2021</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J333" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>743</v>
       </c>
@@ -11529,8 +12542,11 @@
       <c r="I334">
         <v>2021</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J334" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>743</v>
       </c>
@@ -11555,8 +12571,11 @@
       <c r="I335">
         <v>2021</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J335" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>743</v>
       </c>
@@ -11581,8 +12600,11 @@
       <c r="I336">
         <v>2021</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J336" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>743</v>
       </c>
@@ -11607,8 +12629,11 @@
       <c r="I337">
         <v>2021</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J337" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>743</v>
       </c>
@@ -11633,8 +12658,11 @@
       <c r="I338">
         <v>2021</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J338" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>743</v>
       </c>
@@ -11659,8 +12687,11 @@
       <c r="I339">
         <v>2021</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J339" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>743</v>
       </c>
@@ -11685,8 +12716,11 @@
       <c r="I340">
         <v>2021</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J340" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>743</v>
       </c>
@@ -11711,8 +12745,11 @@
       <c r="I341">
         <v>2021</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J341" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>743</v>
       </c>
@@ -11737,8 +12774,11 @@
       <c r="I342">
         <v>2021</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J342" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>743</v>
       </c>
@@ -11763,8 +12803,11 @@
       <c r="I343">
         <v>2021</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J343" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>743</v>
       </c>
@@ -11789,8 +12832,11 @@
       <c r="I344">
         <v>2021</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J344" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>743</v>
       </c>
@@ -11815,8 +12861,11 @@
       <c r="I345">
         <v>2021</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J345" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>743</v>
       </c>
@@ -11841,8 +12890,11 @@
       <c r="I346">
         <v>2021</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J346" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>743</v>
       </c>
@@ -11867,8 +12919,11 @@
       <c r="I347">
         <v>2021</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J347" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>743</v>
       </c>
@@ -11893,8 +12948,11 @@
       <c r="I348">
         <v>2021</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J348" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>743</v>
       </c>
@@ -11919,8 +12977,11 @@
       <c r="I349">
         <v>2021</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J349" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>743</v>
       </c>
@@ -11945,8 +13006,11 @@
       <c r="I350">
         <v>2021</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J350" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>743</v>
       </c>
@@ -11971,8 +13035,11 @@
       <c r="I351">
         <v>2021</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J351" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>743</v>
       </c>
@@ -11997,8 +13064,11 @@
       <c r="I352">
         <v>2021</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J352" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>743</v>
       </c>
@@ -12023,8 +13093,11 @@
       <c r="I353">
         <v>2021</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J353" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>743</v>
       </c>
@@ -12049,8 +13122,11 @@
       <c r="I354">
         <v>2021</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J354" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>743</v>
       </c>
@@ -12075,8 +13151,11 @@
       <c r="I355">
         <v>2021</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J355" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>743</v>
       </c>
@@ -12101,8 +13180,11 @@
       <c r="I356">
         <v>2021</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J356" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>743</v>
       </c>
@@ -12127,8 +13209,11 @@
       <c r="I357">
         <v>2021</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J357" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>743</v>
       </c>
@@ -12153,8 +13238,11 @@
       <c r="I358">
         <v>2021</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J358" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>743</v>
       </c>
@@ -12179,8 +13267,11 @@
       <c r="I359">
         <v>2021</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J359" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>743</v>
       </c>
@@ -12205,8 +13296,11 @@
       <c r="I360">
         <v>2020</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J360" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>743</v>
       </c>
@@ -12231,8 +13325,11 @@
       <c r="I361">
         <v>2021</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J361" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>743</v>
       </c>
@@ -12257,8 +13354,11 @@
       <c r="I362">
         <v>2021</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J362" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>743</v>
       </c>
@@ -12283,8 +13383,11 @@
       <c r="I363">
         <v>2021</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J363" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>743</v>
       </c>
@@ -12309,8 +13412,11 @@
       <c r="I364">
         <v>2021</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J364" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>743</v>
       </c>
@@ -12335,8 +13441,11 @@
       <c r="I365">
         <v>2021</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J365" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>743</v>
       </c>
@@ -12361,8 +13470,11 @@
       <c r="I366">
         <v>2021</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J366" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>743</v>
       </c>
@@ -12387,8 +13499,11 @@
       <c r="I367">
         <v>2021</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J367" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>743</v>
       </c>
@@ -12413,8 +13528,11 @@
       <c r="I368">
         <v>2021</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J368" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>743</v>
       </c>
@@ -12439,8 +13557,11 @@
       <c r="I369">
         <v>2021</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J369" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>743</v>
       </c>
@@ -12465,8 +13586,11 @@
       <c r="I370">
         <v>2022</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J370" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>743</v>
       </c>
@@ -12491,8 +13615,11 @@
       <c r="I371">
         <v>2022</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J371" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>743</v>
       </c>
@@ -12517,8 +13644,11 @@
       <c r="I372">
         <v>2022</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J372" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>743</v>
       </c>
@@ -12543,8 +13673,11 @@
       <c r="I373">
         <v>2022</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J373" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>743</v>
       </c>
@@ -12569,8 +13702,11 @@
       <c r="I374">
         <v>2022</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J374" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>743</v>
       </c>
@@ -12595,8 +13731,11 @@
       <c r="I375">
         <v>2022</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J375" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>743</v>
       </c>
@@ -12621,8 +13760,11 @@
       <c r="I376">
         <v>2022</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J376" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>743</v>
       </c>
@@ -12647,8 +13789,11 @@
       <c r="I377">
         <v>2022</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J377" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>743</v>
       </c>
@@ -12673,8 +13818,11 @@
       <c r="I378">
         <v>2022</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J378" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>743</v>
       </c>
@@ -12699,8 +13847,11 @@
       <c r="I379">
         <v>2022</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J379" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>743</v>
       </c>
@@ -12725,8 +13876,11 @@
       <c r="I380">
         <v>2022</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J380" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>743</v>
       </c>
@@ -12751,8 +13905,11 @@
       <c r="I381">
         <v>2022</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J381" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>743</v>
       </c>
@@ -12777,8 +13934,11 @@
       <c r="I382">
         <v>2022</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J382" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>743</v>
       </c>
@@ -12803,8 +13963,11 @@
       <c r="I383">
         <v>2022</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J383" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>743</v>
       </c>
@@ -12829,8 +13992,11 @@
       <c r="I384">
         <v>2022</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J384" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>743</v>
       </c>
@@ -12855,8 +14021,11 @@
       <c r="I385">
         <v>2022</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J385" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>743</v>
       </c>
@@ -12881,8 +14050,11 @@
       <c r="I386">
         <v>2022</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J386" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>743</v>
       </c>
@@ -12907,8 +14079,11 @@
       <c r="I387">
         <v>2022</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J387" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>743</v>
       </c>
@@ -12933,8 +14108,11 @@
       <c r="I388">
         <v>2022</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J388" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>743</v>
       </c>
@@ -12959,8 +14137,11 @@
       <c r="I389">
         <v>2022</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J389" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>743</v>
       </c>
@@ -12985,8 +14166,11 @@
       <c r="I390">
         <v>2022</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J390" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>743</v>
       </c>
@@ -13011,8 +14195,11 @@
       <c r="I391">
         <v>2022</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J391" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>743</v>
       </c>
@@ -13037,8 +14224,11 @@
       <c r="I392">
         <v>2022</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J392" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>744</v>
       </c>
@@ -13063,8 +14253,11 @@
       <c r="I393">
         <v>2012</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J393" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>744</v>
       </c>
@@ -13092,8 +14285,11 @@
       <c r="I394">
         <v>2016</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J394" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>744</v>
       </c>
@@ -13121,8 +14317,11 @@
       <c r="I395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J395" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>744</v>
       </c>
@@ -13150,8 +14349,11 @@
       <c r="I396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J396" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>744</v>
       </c>
@@ -13179,8 +14381,11 @@
       <c r="I397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J397" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>744</v>
       </c>
@@ -13205,8 +14410,11 @@
       <c r="I398">
         <v>2021</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J398" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>744</v>
       </c>
@@ -13231,8 +14439,11 @@
       <c r="I399">
         <v>2020</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J399" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>744</v>
       </c>
@@ -13257,8 +14468,11 @@
       <c r="I400">
         <v>2020</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J400" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>744</v>
       </c>
@@ -13283,8 +14497,11 @@
       <c r="I401">
         <v>2020</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J401" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>744</v>
       </c>
@@ -13309,8 +14526,11 @@
       <c r="I402">
         <v>2013</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J402" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>744</v>
       </c>
@@ -13335,8 +14555,11 @@
       <c r="I403">
         <v>2020</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J403" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>744</v>
       </c>
@@ -13361,8 +14584,11 @@
       <c r="I404">
         <v>2017</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J404" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>744</v>
       </c>
@@ -13387,8 +14613,11 @@
       <c r="I405">
         <v>2020</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J405" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>745</v>
       </c>
@@ -13413,8 +14642,11 @@
       <c r="I406">
         <v>2022</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J406" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>745</v>
       </c>
@@ -13439,8 +14671,11 @@
       <c r="I407">
         <v>2013</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J407" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>745</v>
       </c>
@@ -13465,8 +14700,11 @@
       <c r="I408">
         <v>2009</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J408" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>745</v>
       </c>
@@ -13491,8 +14729,11 @@
       <c r="I409">
         <v>2011</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J409" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>745</v>
       </c>
@@ -13517,8 +14758,11 @@
       <c r="I410">
         <v>2013</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J410" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>745</v>
       </c>
@@ -13543,8 +14787,11 @@
       <c r="I411">
         <v>2014</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J411" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>745</v>
       </c>
@@ -13569,8 +14816,11 @@
       <c r="I412">
         <v>2017</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J412" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>745</v>
       </c>
@@ -13595,8 +14845,11 @@
       <c r="I413">
         <v>2019</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J413" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>745</v>
       </c>
@@ -13621,8 +14874,11 @@
       <c r="I414">
         <v>2020</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J414" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>745</v>
       </c>
@@ -13647,8 +14903,11 @@
       <c r="I415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J415" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>745</v>
       </c>
@@ -13673,8 +14932,11 @@
       <c r="I416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J416" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>745</v>
       </c>
@@ -13699,8 +14961,11 @@
       <c r="I417">
         <v>2020</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J417" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>745</v>
       </c>
@@ -13725,8 +14990,11 @@
       <c r="I418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J418" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>745</v>
       </c>
@@ -13751,8 +15019,11 @@
       <c r="I419">
         <v>2020</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J419" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>745</v>
       </c>
@@ -13777,8 +15048,11 @@
       <c r="I420">
         <v>2020</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J420" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>745</v>
       </c>
@@ -13803,8 +15077,11 @@
       <c r="I421">
         <v>2021</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J421" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>745</v>
       </c>
@@ -13829,8 +15106,11 @@
       <c r="I422">
         <v>2021</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J422" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>745</v>
       </c>
@@ -13855,8 +15135,11 @@
       <c r="I423">
         <v>2021</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J423" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>746</v>
       </c>
@@ -13881,8 +15164,11 @@
       <c r="I424">
         <v>1995</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J424" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>746</v>
       </c>
@@ -13907,8 +15193,11 @@
       <c r="I425">
         <v>2020</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J425" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>746</v>
       </c>
@@ -13933,8 +15222,11 @@
       <c r="I426">
         <v>2022</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J426" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>748</v>
       </c>
@@ -13959,8 +15251,11 @@
       <c r="I427">
         <v>2017</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J427" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>748</v>
       </c>
@@ -13985,8 +15280,11 @@
       <c r="I428">
         <v>2019</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J428" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>748</v>
       </c>
@@ -14011,8 +15309,11 @@
       <c r="I429">
         <v>2021</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J429" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>748</v>
       </c>
@@ -14037,8 +15338,11 @@
       <c r="I430">
         <v>2021</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J430" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>748</v>
       </c>
@@ -14063,8 +15367,11 @@
       <c r="I431">
         <v>2021</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J431" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>748</v>
       </c>
@@ -14089,8 +15396,11 @@
       <c r="I432">
         <v>2022</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J432" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>748</v>
       </c>
@@ -14115,8 +15425,11 @@
       <c r="I433">
         <v>2013</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J433" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>747</v>
       </c>
@@ -14141,8 +15454,11 @@
       <c r="I434">
         <v>2020</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J434" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>749</v>
       </c>
@@ -14167,8 +15483,11 @@
       <c r="I435">
         <v>2019</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J435" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>749</v>
       </c>
@@ -14193,8 +15512,11 @@
       <c r="I436">
         <v>2017</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J436" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>749</v>
       </c>
@@ -14219,8 +15541,11 @@
       <c r="I437">
         <v>2019</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J437" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>749</v>
       </c>
@@ -14245,8 +15570,11 @@
       <c r="I438">
         <v>2019</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J438" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>749</v>
       </c>
@@ -14271,8 +15599,11 @@
       <c r="I439">
         <v>2019</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J439" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>749</v>
       </c>
@@ -14300,8 +15631,11 @@
       <c r="I440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J440" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>749</v>
       </c>
@@ -14326,8 +15660,11 @@
       <c r="I441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J441" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>749</v>
       </c>
@@ -14352,8 +15689,11 @@
       <c r="I442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J442" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>749</v>
       </c>
@@ -14378,8 +15718,11 @@
       <c r="I443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J443" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>749</v>
       </c>
@@ -14404,8 +15747,11 @@
       <c r="I444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J444" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>749</v>
       </c>
@@ -14430,8 +15776,11 @@
       <c r="I445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J445" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>749</v>
       </c>
@@ -14456,8 +15805,11 @@
       <c r="I446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J446" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>749</v>
       </c>
@@ -14482,8 +15834,11 @@
       <c r="I447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J447" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>749</v>
       </c>
@@ -14511,8 +15866,11 @@
       <c r="I448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J448" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>749</v>
       </c>
@@ -14537,8 +15895,11 @@
       <c r="I449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J449" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>749</v>
       </c>
@@ -14563,8 +15924,11 @@
       <c r="I450">
         <v>1990</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J450" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>749</v>
       </c>
@@ -14589,8 +15953,11 @@
       <c r="I451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J451" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>749</v>
       </c>
@@ -14615,8 +15982,11 @@
       <c r="I452">
         <v>2019</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J452" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>749</v>
       </c>
@@ -14641,8 +16011,11 @@
       <c r="I453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J453" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>749</v>
       </c>
@@ -14667,8 +16040,11 @@
       <c r="I454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J454" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>749</v>
       </c>
@@ -14693,8 +16069,11 @@
       <c r="I455">
         <v>2019</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J455" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>749</v>
       </c>
@@ -14719,8 +16098,11 @@
       <c r="I456">
         <v>2020</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J456" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>749</v>
       </c>
@@ -14745,8 +16127,11 @@
       <c r="I457">
         <v>2020</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J457" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>749</v>
       </c>
@@ -14771,8 +16156,11 @@
       <c r="I458">
         <v>2020</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J458" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>749</v>
       </c>
@@ -14797,8 +16185,11 @@
       <c r="I459">
         <v>2020</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J459" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>749</v>
       </c>
@@ -14823,8 +16214,11 @@
       <c r="I460">
         <v>2020</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J460" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>749</v>
       </c>
@@ -14849,8 +16243,11 @@
       <c r="I461">
         <v>1995</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J461" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>749</v>
       </c>
@@ -14875,8 +16272,11 @@
       <c r="I462">
         <v>2020</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J462" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>622</v>
       </c>
@@ -14901,8 +16301,11 @@
       <c r="I463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J463" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>622</v>
       </c>
@@ -14927,8 +16330,11 @@
       <c r="I464">
         <v>2019</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J464" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>622</v>
       </c>
@@ -14953,8 +16359,11 @@
       <c r="I465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J465" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>622</v>
       </c>
@@ -14979,8 +16388,11 @@
       <c r="I466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J466" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>622</v>
       </c>
@@ -15005,8 +16417,11 @@
       <c r="I467">
         <v>2020</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J467" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>622</v>
       </c>
@@ -15031,8 +16446,11 @@
       <c r="I468">
         <v>2021</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J468" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>622</v>
       </c>
@@ -15057,8 +16475,11 @@
       <c r="I469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J469" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>622</v>
       </c>
@@ -15083,8 +16504,11 @@
       <c r="I470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J470" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>622</v>
       </c>
@@ -15109,8 +16533,11 @@
       <c r="I471">
         <v>2020</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J471" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>622</v>
       </c>
@@ -15135,8 +16562,11 @@
       <c r="I472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J472" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>622</v>
       </c>
@@ -15161,8 +16591,11 @@
       <c r="I473">
         <v>2021</v>
       </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J473" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>622</v>
       </c>
@@ -15187,8 +16620,11 @@
       <c r="I474">
         <v>2021</v>
       </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J474" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>622</v>
       </c>
@@ -15213,8 +16649,11 @@
       <c r="I475">
         <v>2022</v>
       </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J475" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>622</v>
       </c>
@@ -15239,8 +16678,11 @@
       <c r="I476">
         <v>2022</v>
       </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J476" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>750</v>
       </c>
@@ -15265,8 +16707,11 @@
       <c r="I477">
         <v>2018</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J477" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>750</v>
       </c>
@@ -15294,8 +16739,11 @@
       <c r="I478">
         <v>2019</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J478" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>750</v>
       </c>
@@ -15320,8 +16768,11 @@
       <c r="I479">
         <v>2019</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J479" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>750</v>
       </c>
@@ -15346,8 +16797,11 @@
       <c r="I480">
         <v>2020</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J480" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>750</v>
       </c>
@@ -15372,8 +16826,11 @@
       <c r="I481">
         <v>2020</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J481" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>750</v>
       </c>
@@ -15401,8 +16858,11 @@
       <c r="I482">
         <v>2021</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J482" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>750</v>
       </c>
@@ -15427,8 +16887,11 @@
       <c r="I483">
         <v>2021</v>
       </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J483" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>647</v>
       </c>
@@ -15453,8 +16916,11 @@
       <c r="I484">
         <v>2019</v>
       </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J484" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>647</v>
       </c>
@@ -15479,8 +16945,11 @@
       <c r="I485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J485" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>647</v>
       </c>
@@ -15505,8 +16974,11 @@
       <c r="I486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J486" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>647</v>
       </c>
@@ -15531,8 +17003,11 @@
       <c r="I487">
         <v>2019</v>
       </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J487" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>647</v>
       </c>
@@ -15557,8 +17032,11 @@
       <c r="I488">
         <v>2020</v>
       </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J488" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>647</v>
       </c>
@@ -15583,8 +17061,11 @@
       <c r="I489">
         <v>2020</v>
       </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J489" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>647</v>
       </c>
@@ -15609,8 +17090,11 @@
       <c r="I490">
         <v>2020</v>
       </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J490" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>647</v>
       </c>
@@ -15635,8 +17119,11 @@
       <c r="I491">
         <v>2020</v>
       </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J491" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>647</v>
       </c>
@@ -15661,8 +17148,11 @@
       <c r="I492">
         <v>2021</v>
       </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J492" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>647</v>
       </c>
@@ -15687,8 +17177,11 @@
       <c r="I493">
         <v>2021</v>
       </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J493" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>647</v>
       </c>
@@ -15713,8 +17206,11 @@
       <c r="I494">
         <v>2013</v>
       </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J494" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>659</v>
       </c>
@@ -15739,8 +17235,11 @@
       <c r="I495">
         <v>2009</v>
       </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J495" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>659</v>
       </c>
@@ -15765,8 +17264,11 @@
       <c r="I496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J496" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>659</v>
       </c>
@@ -15791,8 +17293,11 @@
       <c r="I497">
         <v>2018</v>
       </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J497" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>659</v>
       </c>
@@ -15817,8 +17322,11 @@
       <c r="I498">
         <v>1994</v>
       </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J498" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>659</v>
       </c>
@@ -15843,8 +17351,11 @@
       <c r="I499">
         <v>2022</v>
       </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J499" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>659</v>
       </c>
@@ -15869,8 +17380,11 @@
       <c r="I500">
         <v>2013</v>
       </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J500" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>668</v>
       </c>
@@ -15895,8 +17409,11 @@
       <c r="I501">
         <v>1991</v>
       </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J501" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>668</v>
       </c>
@@ -15921,8 +17438,11 @@
       <c r="I502">
         <v>2013</v>
       </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J502" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>668</v>
       </c>
@@ -15947,8 +17467,11 @@
       <c r="I503">
         <v>2020</v>
       </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J503" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>668</v>
       </c>
@@ -15973,8 +17496,11 @@
       <c r="I504">
         <v>2014</v>
       </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J504" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>668</v>
       </c>
@@ -15999,8 +17525,11 @@
       <c r="I505">
         <v>2017</v>
       </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J505" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>668</v>
       </c>
@@ -16028,8 +17557,11 @@
       <c r="I506">
         <v>2019</v>
       </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J506" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>668</v>
       </c>
@@ -16054,8 +17586,11 @@
       <c r="I507">
         <v>2018</v>
       </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J507" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>668</v>
       </c>
@@ -16080,8 +17615,11 @@
       <c r="I508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J508" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>668</v>
       </c>
@@ -16106,8 +17644,11 @@
       <c r="I509">
         <v>2019</v>
       </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J509" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>668</v>
       </c>
@@ -16132,8 +17673,11 @@
       <c r="I510">
         <v>2019</v>
       </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J510" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>668</v>
       </c>
@@ -16158,8 +17702,11 @@
       <c r="I511">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J511" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>668</v>
       </c>
@@ -16184,8 +17731,11 @@
       <c r="I512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J512" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>668</v>
       </c>
@@ -16210,8 +17760,11 @@
       <c r="I513">
         <v>2020</v>
       </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J513" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>668</v>
       </c>
@@ -16236,8 +17789,11 @@
       <c r="I514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J514" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>668</v>
       </c>
@@ -16262,8 +17818,11 @@
       <c r="I515">
         <v>2020</v>
       </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J515" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>668</v>
       </c>
@@ -16288,8 +17847,11 @@
       <c r="I516">
         <v>2020</v>
       </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J516" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>668</v>
       </c>
@@ -16317,8 +17879,11 @@
       <c r="I517">
         <v>2020</v>
       </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J517" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>668</v>
       </c>
@@ -16346,8 +17911,11 @@
       <c r="I518">
         <v>2020</v>
       </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J518" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>668</v>
       </c>
@@ -16375,8 +17943,11 @@
       <c r="I519">
         <v>2020</v>
       </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J519" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>668</v>
       </c>
@@ -16401,8 +17972,11 @@
       <c r="I520">
         <v>2020</v>
       </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J520" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>668</v>
       </c>
@@ -16427,8 +18001,11 @@
       <c r="I521">
         <v>2021</v>
       </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J521" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>668</v>
       </c>
@@ -16456,8 +18033,11 @@
       <c r="I522">
         <v>2021</v>
       </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J522" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>668</v>
       </c>
@@ -16482,8 +18062,11 @@
       <c r="I523">
         <v>2021</v>
       </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J523" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>668</v>
       </c>
@@ -16508,8 +18091,11 @@
       <c r="I524">
         <v>2021</v>
       </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J524" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>699</v>
       </c>
@@ -16534,8 +18120,11 @@
       <c r="I525">
         <v>2015</v>
       </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J525" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>699</v>
       </c>
@@ -16560,8 +18149,11 @@
       <c r="I526">
         <v>2018</v>
       </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J526" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>699</v>
       </c>
@@ -16586,8 +18178,11 @@
       <c r="I527">
         <v>2018</v>
       </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J527" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>699</v>
       </c>
@@ -16612,8 +18207,11 @@
       <c r="I528">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J528" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>699</v>
       </c>
@@ -16638,8 +18236,11 @@
       <c r="I529">
         <v>2012</v>
       </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J529" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>699</v>
       </c>
@@ -16664,8 +18265,11 @@
       <c r="I530">
         <v>2022</v>
       </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J530" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>699</v>
       </c>
@@ -16690,8 +18294,11 @@
       <c r="I531">
         <v>2021</v>
       </c>
-    </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J531" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>699</v>
       </c>
@@ -16716,8 +18323,11 @@
       <c r="I532">
         <v>2013</v>
       </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J532" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>710</v>
       </c>
@@ -16742,8 +18352,11 @@
       <c r="I533">
         <v>1986</v>
       </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J533" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>710</v>
       </c>
@@ -16768,8 +18381,11 @@
       <c r="I534">
         <v>2019</v>
       </c>
-    </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J534" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>710</v>
       </c>
@@ -16794,8 +18410,11 @@
       <c r="I535">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J535" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>710</v>
       </c>
@@ -16820,8 +18439,11 @@
       <c r="I536">
         <v>2022</v>
       </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J536" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>710</v>
       </c>
@@ -16846,8 +18468,11 @@
       <c r="I537">
         <v>1978</v>
       </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J537" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>717</v>
       </c>
@@ -16872,8 +18497,11 @@
       <c r="I538">
         <v>2013</v>
       </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J538" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>717</v>
       </c>
@@ -16898,8 +18526,11 @@
       <c r="I539">
         <v>2018</v>
       </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J539" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>717</v>
       </c>
@@ -16924,8 +18555,11 @@
       <c r="I540">
         <v>2019</v>
       </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J540" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>717</v>
       </c>
@@ -16950,8 +18584,11 @@
       <c r="I541">
         <v>2019</v>
       </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J541" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>717</v>
       </c>
@@ -16976,8 +18613,11 @@
       <c r="I542">
         <v>2019</v>
       </c>
-    </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J542" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>717</v>
       </c>
@@ -17002,8 +18642,11 @@
       <c r="I543">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J543" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>717</v>
       </c>
@@ -17028,8 +18671,11 @@
       <c r="I544">
         <v>2021</v>
       </c>
-    </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J544" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>717</v>
       </c>
@@ -17054,8 +18700,11 @@
       <c r="I545">
         <v>2021</v>
       </c>
-    </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J545" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>717</v>
       </c>
@@ -17080,8 +18729,11 @@
       <c r="I546">
         <v>2021</v>
       </c>
-    </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J546" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>717</v>
       </c>
@@ -17106,8 +18758,11 @@
       <c r="I547">
         <v>2013</v>
       </c>
-    </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J547" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>756</v>
       </c>
@@ -17132,8 +18787,11 @@
       <c r="I548">
         <v>2019</v>
       </c>
-    </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J548" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>756</v>
       </c>
@@ -17158,8 +18816,11 @@
       <c r="I549">
         <v>2021</v>
       </c>
-    </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J549" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>756</v>
       </c>
@@ -17184,8 +18845,11 @@
       <c r="I550">
         <v>1978</v>
       </c>
-    </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J550" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>755</v>
       </c>
@@ -17210,8 +18874,11 @@
       <c r="I551">
         <v>2022</v>
       </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J551" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>751</v>
       </c>
@@ -17235,6 +18902,9 @@
       </c>
       <c r="I552">
         <v>2016</v>
+      </c>
+      <c r="J552" t="s">
+        <v>759</v>
       </c>
     </row>
   </sheetData>
